--- a/egov/egov_functional_test/src/test/resources/dataFiles/loginTestData.xlsx
+++ b/egov/egov_functional_test/src/test/resources/dataFiles/loginTestData.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="153">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246" uniqueCount="163">
   <si>
     <t xml:space="preserve">dataName</t>
   </si>
@@ -479,6 +479,36 @@
   </si>
   <si>
     <t xml:space="preserve">A0003</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WaterTaxCreator</t>
+  </si>
+  <si>
+    <t xml:space="preserve">W0001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WaterTaxULBOperator</t>
+  </si>
+  <si>
+    <t xml:space="preserve">W0002</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WaterTaxApprover</t>
+  </si>
+  <si>
+    <t xml:space="preserve">W0003</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WaterTaxAdmin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">W0004</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PTISCommissioner</t>
+  </si>
+  <si>
+    <t xml:space="preserve">P0005</t>
   </si>
 </sst>
 </file>
@@ -494,6 +524,7 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -518,10 +549,11 @@
       <charset val="1"/>
     </font>
     <font>
-      <sz val="12"/>
+      <sz val="11"/>
       <color rgb="FF000000"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -570,20 +602,16 @@
       <protection locked="true" hidden="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -605,27 +633,28 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D78"/>
+  <dimension ref="A1:D83"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A59" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E75" activeCellId="0" sqref="E75"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C6" activeCellId="0" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultRowHeight="17"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="32.530612244898"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="2" width="17.280612244898"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="17.8214285714286"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="12.1479591836735"/>
-    <col collapsed="false" hidden="false" max="26" min="5" style="1" width="9.71938775510204"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="32.1275510204082"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="17.0102040816327"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="24.6326530612245"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="11.8775510204082"/>
+    <col collapsed="false" hidden="false" max="26" min="5" style="1" width="9.58673469387755"/>
     <col collapsed="false" hidden="false" max="257" min="27" style="1" width="6.0765306122449"/>
+    <col collapsed="false" hidden="false" max="1025" min="258" style="2" width="8.50510204081633"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="17.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
@@ -635,11 +664,11 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="17.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C2" s="1" t="s">
@@ -650,11 +679,11 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="17.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="1" t="s">
         <v>8</v>
       </c>
       <c r="C3" s="1" t="s">
@@ -665,11 +694,11 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="17.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C4" s="1" t="s">
@@ -680,11 +709,11 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="17.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="1" t="s">
         <v>12</v>
       </c>
       <c r="C5" s="1" t="s">
@@ -695,11 +724,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="17.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="1" t="s">
         <v>14</v>
       </c>
       <c r="C6" s="1" t="s">
@@ -710,11 +739,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="17.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B7" s="1" t="s">
         <v>16</v>
       </c>
       <c r="C7" s="1" t="s">
@@ -725,11 +754,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="17.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="8" customFormat="false" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="B8" s="1" t="s">
         <v>18</v>
       </c>
       <c r="C8" s="1" t="s">
@@ -740,11 +769,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="17.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="9" customFormat="false" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="B9" s="1" t="s">
         <v>20</v>
       </c>
       <c r="C9" s="1" t="s">
@@ -755,11 +784,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="17.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="10" customFormat="false" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="B10" s="1" t="s">
         <v>22</v>
       </c>
       <c r="C10" s="1" t="s">
@@ -770,11 +799,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="17.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="11" customFormat="false" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B11" s="2" t="s">
+      <c r="B11" s="1" t="s">
         <v>24</v>
       </c>
       <c r="C11" s="1" t="s">
@@ -785,11 +814,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="17.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="12" customFormat="false" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B12" s="2" t="s">
+      <c r="B12" s="1" t="s">
         <v>26</v>
       </c>
       <c r="C12" s="1" t="s">
@@ -800,11 +829,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="17.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="13" customFormat="false" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B13" s="2" t="s">
+      <c r="B13" s="1" t="s">
         <v>28</v>
       </c>
       <c r="C13" s="1" t="s">
@@ -815,11 +844,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="17.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="14" customFormat="false" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B14" s="2" t="s">
+      <c r="B14" s="1" t="s">
         <v>30</v>
       </c>
       <c r="C14" s="1" t="s">
@@ -830,11 +859,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="17.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="15" customFormat="false" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="B15" s="2" t="s">
+      <c r="B15" s="1" t="s">
         <v>32</v>
       </c>
       <c r="C15" s="1" t="s">
@@ -845,11 +874,11 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="17.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="16" customFormat="false" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="B16" s="2" t="s">
+      <c r="B16" s="1" t="s">
         <v>34</v>
       </c>
       <c r="C16" s="1" t="s">
@@ -860,11 +889,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="17.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="17" customFormat="false" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="B17" s="2" t="n">
+      <c r="B17" s="1" t="n">
         <v>944162</v>
       </c>
       <c r="C17" s="1" t="s">
@@ -875,11 +904,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="17.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="18" customFormat="false" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="B18" s="2" t="n">
+      <c r="B18" s="1" t="n">
         <v>944176</v>
       </c>
       <c r="C18" s="1" t="s">
@@ -890,11 +919,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="17.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="19" customFormat="false" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="B19" s="2" t="s">
+      <c r="B19" s="1" t="s">
         <v>38</v>
       </c>
       <c r="C19" s="1" t="s">
@@ -905,11 +934,11 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="17.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="20" customFormat="false" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="B20" s="2" t="s">
+      <c r="B20" s="1" t="s">
         <v>40</v>
       </c>
       <c r="C20" s="1" t="s">
@@ -920,11 +949,11 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="17.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="21" customFormat="false" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A21" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="B21" s="2" t="s">
+      <c r="B21" s="1" t="s">
         <v>42</v>
       </c>
       <c r="C21" s="1" t="s">
@@ -935,11 +964,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="17.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="22" customFormat="false" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A22" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="B22" s="2" t="s">
+      <c r="B22" s="1" t="s">
         <v>44</v>
       </c>
       <c r="C22" s="1" t="s">
@@ -950,11 +979,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="17.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="23" customFormat="false" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A23" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="B23" s="2" t="n">
+      <c r="B23" s="1" t="n">
         <v>944162</v>
       </c>
       <c r="C23" s="1" t="s">
@@ -965,11 +994,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" customFormat="false" ht="17.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="24" customFormat="false" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A24" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="B24" s="2" t="s">
+      <c r="B24" s="1" t="s">
         <v>47</v>
       </c>
       <c r="C24" s="1" t="s">
@@ -980,11 +1009,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" customFormat="false" ht="17.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="25" customFormat="false" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A25" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="B25" s="2" t="s">
+      <c r="B25" s="1" t="s">
         <v>49</v>
       </c>
       <c r="C25" s="1" t="s">
@@ -995,11 +1024,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" customFormat="false" ht="17.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="26" customFormat="false" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A26" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="B26" s="2" t="s">
+      <c r="B26" s="1" t="s">
         <v>51</v>
       </c>
       <c r="C26" s="1" t="s">
@@ -1010,11 +1039,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" customFormat="false" ht="17.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="27" customFormat="false" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A27" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="B27" s="2" t="s">
+      <c r="B27" s="1" t="s">
         <v>53</v>
       </c>
       <c r="C27" s="1" t="s">
@@ -1025,11 +1054,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" customFormat="false" ht="17.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="28" customFormat="false" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A28" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="B28" s="2" t="s">
+      <c r="B28" s="1" t="s">
         <v>55</v>
       </c>
       <c r="C28" s="1" t="s">
@@ -1040,11 +1069,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" customFormat="false" ht="17.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="29" customFormat="false" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A29" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="B29" s="2" t="s">
+      <c r="B29" s="1" t="s">
         <v>57</v>
       </c>
       <c r="C29" s="1" t="s">
@@ -1055,11 +1084,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" customFormat="false" ht="17.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="30" customFormat="false" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A30" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="B30" s="2" t="s">
+      <c r="B30" s="1" t="s">
         <v>57</v>
       </c>
       <c r="C30" s="1" t="s">
@@ -1070,11 +1099,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" customFormat="false" ht="17.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="31" customFormat="false" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A31" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="B31" s="2" t="s">
+      <c r="B31" s="1" t="s">
         <v>60</v>
       </c>
       <c r="C31" s="1" t="s">
@@ -1085,11 +1114,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" customFormat="false" ht="17.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="32" customFormat="false" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A32" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="B32" s="2" t="s">
+      <c r="B32" s="1" t="s">
         <v>62</v>
       </c>
       <c r="C32" s="1" t="s">
@@ -1100,11 +1129,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" customFormat="false" ht="17.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="33" customFormat="false" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A33" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="B33" s="2" t="s">
+      <c r="B33" s="1" t="s">
         <v>64</v>
       </c>
       <c r="C33" s="1" t="s">
@@ -1115,11 +1144,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" customFormat="false" ht="17.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="34" customFormat="false" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A34" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="B34" s="2" t="s">
+      <c r="B34" s="1" t="s">
         <v>66</v>
       </c>
       <c r="C34" s="1" t="s">
@@ -1130,11 +1159,11 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" customFormat="false" ht="17.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="35" customFormat="false" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A35" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="B35" s="2" t="s">
+      <c r="B35" s="1" t="s">
         <v>8</v>
       </c>
       <c r="C35" s="1" t="s">
@@ -1145,11 +1174,11 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" customFormat="false" ht="17.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="36" customFormat="false" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A36" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="B36" s="2" t="s">
+      <c r="B36" s="1" t="s">
         <v>69</v>
       </c>
       <c r="C36" s="1" t="s">
@@ -1160,11 +1189,11 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" customFormat="false" ht="17.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="37" customFormat="false" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A37" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="B37" s="2" t="s">
+      <c r="B37" s="1" t="s">
         <v>12</v>
       </c>
       <c r="C37" s="1" t="s">
@@ -1175,11 +1204,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" customFormat="false" ht="17.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="38" customFormat="false" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A38" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="B38" s="2" t="s">
+      <c r="B38" s="1" t="s">
         <v>71</v>
       </c>
       <c r="C38" s="1" t="s">
@@ -1190,11 +1219,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" customFormat="false" ht="17.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="39" customFormat="false" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A39" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="B39" s="2" t="s">
+      <c r="B39" s="1" t="s">
         <v>74</v>
       </c>
       <c r="C39" s="1" t="s">
@@ -1205,11 +1234,11 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" customFormat="false" ht="17.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="40" customFormat="false" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A40" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="B40" s="2" t="s">
+      <c r="B40" s="1" t="s">
         <v>76</v>
       </c>
       <c r="C40" s="1" t="s">
@@ -1220,11 +1249,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" customFormat="false" ht="17.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="41" customFormat="false" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A41" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="B41" s="2" t="s">
+      <c r="B41" s="1" t="s">
         <v>78</v>
       </c>
       <c r="C41" s="1" t="s">
@@ -1235,11 +1264,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" customFormat="false" ht="17.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="42" customFormat="false" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A42" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="B42" s="2" t="s">
+      <c r="B42" s="1" t="s">
         <v>80</v>
       </c>
       <c r="C42" s="1" t="s">
@@ -1250,11 +1279,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" customFormat="false" ht="17.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="43" customFormat="false" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A43" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="B43" s="2" t="s">
+      <c r="B43" s="1" t="s">
         <v>82</v>
       </c>
       <c r="C43" s="1" t="s">
@@ -1265,11 +1294,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" customFormat="false" ht="17.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="44" customFormat="false" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A44" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="B44" s="2" t="s">
+      <c r="B44" s="1" t="s">
         <v>84</v>
       </c>
       <c r="C44" s="1" t="s">
@@ -1280,11 +1309,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" customFormat="false" ht="17.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="45" customFormat="false" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A45" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="B45" s="2" t="s">
+      <c r="B45" s="1" t="s">
         <v>86</v>
       </c>
       <c r="C45" s="1" t="s">
@@ -1295,11 +1324,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" customFormat="false" ht="17.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="46" customFormat="false" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A46" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="B46" s="2" t="s">
+      <c r="B46" s="1" t="s">
         <v>87</v>
       </c>
       <c r="C46" s="1" t="s">
@@ -1310,11 +1339,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" customFormat="false" ht="17.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="47" customFormat="false" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A47" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="B47" s="2" t="s">
+      <c r="B47" s="1" t="s">
         <v>89</v>
       </c>
       <c r="C47" s="1" t="s">
@@ -1325,11 +1354,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" customFormat="false" ht="17.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="48" customFormat="false" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A48" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="B48" s="2" t="s">
+      <c r="B48" s="1" t="s">
         <v>91</v>
       </c>
       <c r="C48" s="1" t="s">
@@ -1340,11 +1369,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" customFormat="false" ht="17.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="49" customFormat="false" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A49" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="B49" s="2" t="s">
+      <c r="B49" s="1" t="s">
         <v>93</v>
       </c>
       <c r="C49" s="1" t="s">
@@ -1355,11 +1384,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" customFormat="false" ht="17.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="50" customFormat="false" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A50" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="B50" s="2" t="s">
+      <c r="B50" s="1" t="s">
         <v>95</v>
       </c>
       <c r="C50" s="1" t="s">
@@ -1370,11 +1399,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" customFormat="false" ht="17.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="51" customFormat="false" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A51" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="B51" s="2" t="s">
+      <c r="B51" s="1" t="s">
         <v>97</v>
       </c>
       <c r="C51" s="1" t="s">
@@ -1385,11 +1414,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" customFormat="false" ht="17.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="52" customFormat="false" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A52" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="B52" s="2" t="s">
+      <c r="B52" s="1" t="s">
         <v>99</v>
       </c>
       <c r="C52" s="1" t="s">
@@ -1400,11 +1429,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" customFormat="false" ht="17.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="53" customFormat="false" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A53" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="B53" s="2" t="s">
+      <c r="B53" s="1" t="s">
         <v>101</v>
       </c>
       <c r="C53" s="1" t="s">
@@ -1415,11 +1444,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" customFormat="false" ht="17.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="54" customFormat="false" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A54" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="B54" s="2" t="s">
+      <c r="B54" s="1" t="s">
         <v>103</v>
       </c>
       <c r="C54" s="1" t="s">
@@ -1430,11 +1459,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" customFormat="false" ht="17.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="55" customFormat="false" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A55" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="B55" s="2" t="s">
+      <c r="B55" s="1" t="s">
         <v>76</v>
       </c>
       <c r="C55" s="1" t="s">
@@ -1445,11 +1474,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" customFormat="false" ht="17.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="56" customFormat="false" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A56" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="B56" s="2" t="n">
+      <c r="B56" s="1" t="n">
         <v>946800</v>
       </c>
       <c r="C56" s="1" t="s">
@@ -1460,11 +1489,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" customFormat="false" ht="17.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="57" customFormat="false" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A57" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="B57" s="2" t="s">
+      <c r="B57" s="1" t="s">
         <v>107</v>
       </c>
       <c r="C57" s="1" t="s">
@@ -1475,11 +1504,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" customFormat="false" ht="17.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="58" customFormat="false" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A58" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="B58" s="2" t="s">
+      <c r="B58" s="1" t="s">
         <v>109</v>
       </c>
       <c r="C58" s="1" t="s">
@@ -1490,11 +1519,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" customFormat="false" ht="17.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="59" customFormat="false" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A59" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="B59" s="2" t="s">
+      <c r="B59" s="1" t="s">
         <v>111</v>
       </c>
       <c r="C59" s="1" t="s">
@@ -1505,11 +1534,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" customFormat="false" ht="17.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="60" customFormat="false" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A60" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="B60" s="2" t="s">
+      <c r="B60" s="1" t="s">
         <v>114</v>
       </c>
       <c r="C60" s="1" t="s">
@@ -1520,11 +1549,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" customFormat="false" ht="17.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="61" customFormat="false" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A61" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="B61" s="2" t="s">
+      <c r="B61" s="1" t="s">
         <v>116</v>
       </c>
       <c r="C61" s="1" t="s">
@@ -1535,11 +1564,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" customFormat="false" ht="17.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="62" customFormat="false" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A62" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="B62" s="2" t="s">
+      <c r="B62" s="1" t="s">
         <v>118</v>
       </c>
       <c r="C62" s="1" t="s">
@@ -1550,11 +1579,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" customFormat="false" ht="17.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="63" customFormat="false" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A63" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="B63" s="2" t="s">
+      <c r="B63" s="1" t="s">
         <v>120</v>
       </c>
       <c r="C63" s="1" t="s">
@@ -1565,11 +1594,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" customFormat="false" ht="17.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="64" customFormat="false" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A64" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="B64" s="2" t="s">
+      <c r="B64" s="1" t="s">
         <v>123</v>
       </c>
       <c r="C64" s="1" t="s">
@@ -1580,11 +1609,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" customFormat="false" ht="17.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="65" customFormat="false" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A65" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="B65" s="2" t="s">
+      <c r="B65" s="1" t="s">
         <v>125</v>
       </c>
       <c r="C65" s="1" t="s">
@@ -1595,11 +1624,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" customFormat="false" ht="17.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="66" customFormat="false" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A66" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="B66" s="2" t="s">
+      <c r="B66" s="1" t="s">
         <v>127</v>
       </c>
       <c r="C66" s="1" t="s">
@@ -1610,11 +1639,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" customFormat="false" ht="17.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="67" customFormat="false" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A67" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="B67" s="2" t="s">
+      <c r="B67" s="1" t="s">
         <v>129</v>
       </c>
       <c r="C67" s="1" t="s">
@@ -1625,11 +1654,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" customFormat="false" ht="17.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="68" customFormat="false" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A68" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="B68" s="2" t="s">
+      <c r="B68" s="1" t="s">
         <v>131</v>
       </c>
       <c r="C68" s="1" t="s">
@@ -1640,11 +1669,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" customFormat="false" ht="17.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="69" customFormat="false" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A69" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="B69" s="2" t="s">
+      <c r="B69" s="1" t="s">
         <v>134</v>
       </c>
       <c r="C69" s="1" t="s">
@@ -1655,11 +1684,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" customFormat="false" ht="17.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="70" customFormat="false" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A70" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="B70" s="2" t="s">
+      <c r="B70" s="1" t="s">
         <v>136</v>
       </c>
       <c r="C70" s="1" t="s">
@@ -1670,11 +1699,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" customFormat="false" ht="17.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="71" customFormat="false" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A71" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="B71" s="2" t="s">
+      <c r="B71" s="1" t="s">
         <v>138</v>
       </c>
       <c r="C71" s="1" t="s">
@@ -1685,11 +1714,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" customFormat="false" ht="17.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="72" customFormat="false" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A72" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="B72" s="2" t="s">
+      <c r="B72" s="1" t="s">
         <v>16</v>
       </c>
       <c r="C72" s="1" t="s">
@@ -1700,11 +1729,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="73" customFormat="false" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A73" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="B73" s="2" t="s">
+      <c r="B73" s="1" t="s">
         <v>66</v>
       </c>
       <c r="C73" s="1" t="s">
@@ -1715,11 +1744,11 @@
         <v>1</v>
       </c>
     </row>
-    <row r="74" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="74" customFormat="false" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A74" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="B74" s="2" t="s">
+      <c r="B74" s="1" t="s">
         <v>144</v>
       </c>
       <c r="C74" s="1" t="s">
@@ -1730,11 +1759,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="75" customFormat="false" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A75" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="B75" s="2" t="s">
+      <c r="B75" s="1" t="s">
         <v>146</v>
       </c>
       <c r="C75" s="1" t="s">
@@ -1745,14 +1774,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="76" customFormat="false" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A76" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="B76" s="2" t="s">
+      <c r="B76" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="C76" s="3" t="s">
+      <c r="C76" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D76" s="1" t="n">
@@ -1760,14 +1789,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="77" customFormat="false" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A77" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="B77" s="2" t="s">
+      <c r="B77" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="C77" s="3" t="s">
+      <c r="C77" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D77" s="1" t="n">
@@ -1775,17 +1804,92 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="78" customFormat="false" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A78" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="B78" s="2" t="s">
+      <c r="B78" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="C78" s="3" t="s">
+      <c r="C78" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D78" s="1" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" customFormat="false" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A79" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="B79" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="C79" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D79" s="1" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" customFormat="false" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A80" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="B80" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="C80" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D80" s="1" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" customFormat="false" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A81" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="B81" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="C81" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D81" s="1" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" customFormat="false" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A82" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="B82" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="C82" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D82" s="1" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" customFormat="false" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A83" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="B83" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="C83" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D83" s="1" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -1795,6 +1899,11 @@
     <hyperlink ref="C76" r:id="rId1" display="kurnool_eGov@123"/>
     <hyperlink ref="C77" r:id="rId2" display="kurnool_eGov@123"/>
     <hyperlink ref="C78" r:id="rId3" display="kurnool_eGov@123"/>
+    <hyperlink ref="C79" r:id="rId4" display="kurnool_eGov@123"/>
+    <hyperlink ref="C80" r:id="rId5" display="kurnool_eGov@123"/>
+    <hyperlink ref="C81" r:id="rId6" display="kurnool_eGov@123"/>
+    <hyperlink ref="C82" r:id="rId7" display="kurnool_eGov@123"/>
+    <hyperlink ref="C83" r:id="rId8" display="kurnool_eGov@123"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>

--- a/egov/egov_functional_test/src/test/resources/dataFiles/loginTestData.xlsx
+++ b/egov/egov_functional_test/src/test/resources/dataFiles/loginTestData.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246" uniqueCount="163">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="263" uniqueCount="172">
   <si>
     <t xml:space="preserve">dataName</t>
   </si>
@@ -503,6 +503,33 @@
   </si>
   <si>
     <t xml:space="preserve">W0004</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PTISJuniorAssistant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">P0001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PTISBillCollector</t>
+  </si>
+  <si>
+    <t xml:space="preserve">P0002</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PTISRevenueInspector</t>
+  </si>
+  <si>
+    <t xml:space="preserve">P0003</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PTISRevenueOfficer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">P0004</t>
   </si>
   <si>
     <t xml:space="preserve">PTISCommissioner</t>
@@ -602,7 +629,7 @@
       <protection locked="true" hidden="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -613,6 +640,14 @@
     </xf>
     <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -633,21 +668,21 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D83"/>
+  <dimension ref="A1:D65536"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C6" activeCellId="0" sqref="C6"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A70" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="I83" activeCellId="0" sqref="I83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="32.1275510204082"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="17.0102040816327"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="24.6326530612245"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="11.8775510204082"/>
-    <col collapsed="false" hidden="false" max="26" min="5" style="1" width="9.58673469387755"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="31.7244897959184"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="16.7397959183673"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="24.3010204081633"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="11.6071428571429"/>
+    <col collapsed="false" hidden="false" max="26" min="5" style="1" width="9.44897959183673"/>
     <col collapsed="false" hidden="false" max="257" min="27" style="1" width="6.0765306122449"/>
-    <col collapsed="false" hidden="false" max="1025" min="258" style="2" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="1025" min="258" style="2" width="8.36734693877551"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1879,21 +1914,77 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" customFormat="false" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A83" s="1" t="s">
+    <row r="83" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A83" s="3" t="s">
         <v>161</v>
       </c>
-      <c r="B83" s="1" t="s">
+      <c r="B83" s="3" t="s">
         <v>162</v>
       </c>
       <c r="C83" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D83" s="1" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-    </row>
+      <c r="D83" s="4" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="84" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A84" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="B84" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="C84" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D84" s="4" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="85" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A85" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="B85" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="C85" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D85" s="4" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="86" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A86" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="B86" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="C86" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D86" s="4" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="87" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A87" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="B87" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="C87" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D87" s="4" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="C76" r:id="rId1" display="kurnool_eGov@123"/>
@@ -1904,6 +1995,10 @@
     <hyperlink ref="C81" r:id="rId6" display="kurnool_eGov@123"/>
     <hyperlink ref="C82" r:id="rId7" display="kurnool_eGov@123"/>
     <hyperlink ref="C83" r:id="rId8" display="kurnool_eGov@123"/>
+    <hyperlink ref="C84" r:id="rId9" display="kurnool_eGov@123"/>
+    <hyperlink ref="C85" r:id="rId10" display="kurnool_eGov@123"/>
+    <hyperlink ref="C86" r:id="rId11" display="kurnool_eGov@123"/>
+    <hyperlink ref="C87" r:id="rId12" display="kurnool_eGov@123"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
